--- a/Test/C780_Binary_Library_Test_Plan_20200826_cellini.xlsx
+++ b/Test/C780_Binary_Library_Test_Plan_20200826_cellini.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620" tabRatio="814" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620" tabRatio="814" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Revision_His." sheetId="3" r:id="rId1"/>
@@ -805,7 +805,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="286">
   <si>
     <t>Test ID</t>
   </si>
@@ -1754,9 +1754,6 @@
 2. a device with all the connections parameter already configured as above</t>
   </si>
   <si>
-    <t>a. the system do not accept an empty pwd</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test if the configuration page accept only valid fields
 a. empty AP pwd not allowed
 b. </t>
@@ -1835,9 +1832,6 @@
 - the GME restore the connection as soon Internet is reacheable again</t>
   </si>
   <si>
-    <t>WiFi - Check that the GME connect only to an AP that have the right security level (WPA2)</t>
-  </si>
-  <si>
     <t xml:space="preserve">GME configured and connected to the internet </t>
   </si>
   <si>
@@ -1860,19 +1854,12 @@
     <t>Initial version</t>
   </si>
   <si>
-    <t>WiFi - Check that GME connect to an AP also if this is not initially available.</t>
-  </si>
-  <si>
     <t>- GME configured and powered on
 - Test AP configured but powered off</t>
   </si>
   <si>
     <t>The GME will connect to the AP within 2 min starting from the availability 
 of the test AP</t>
-  </si>
-  <si>
-    <t>The scope of this test is to verify the robustness of the system after a global
-power fail, where every device have your own power up time.</t>
   </si>
   <si>
     <t xml:space="preserve">WiFi - simply use a router and detach the connection with the provider
@@ -1963,37 +1950,6 @@
     <t>checked with epoch converter (www.epochconverter.com)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">when we pass a payload-set_devs_config with a uri = " "
-the devise goes to error and reboot
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E (21255) HTTP_CLIENT: Error parse url  test:password@
-E (21255) HTTP_CLIENT: Error while setting default configurations
-….
-Rebooting...</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>1. configure the GME to access the Internet through a suitable AP
 2. make sure that the MAC of the GME is already registered in the cloud
 3. make sure that the GME is correctly configured</t>
@@ -2037,6 +1993,34 @@
   </si>
   <si>
     <t>NOT APPLICABLE</t>
+  </si>
+  <si>
+    <t>c.pCOmini @9600 connected and communicating</t>
+  </si>
+  <si>
+    <t>WiFi - Check that GME connects to an AP repeatedly
+ even if the AP goes up and down</t>
+  </si>
+  <si>
+    <t>- GME configured and powered on
+- Test AP configured repeatedly switched on and off</t>
+  </si>
+  <si>
+    <t>The GME will connect to the AP within 2 min starting from the availability 
+of the test AP every time AP is repowered</t>
+  </si>
+  <si>
+    <t>The scope of this test is to verify the robustness of the system after a global
+power fail, where every device has its own power up time.</t>
+  </si>
+  <si>
+    <t>WiFi - Check that GME connects to an AP also if this is not initially available.</t>
+  </si>
+  <si>
+    <t>WiFi - Check that the GME connects only to an AP that have the right security level (WPA2)</t>
+  </si>
+  <si>
+    <t>a. the system does not accept an empty pwd</t>
   </si>
 </sst>
 </file>
@@ -3240,10 +3224,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>246</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>248</v>
       </c>
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
@@ -3252,10 +3236,10 @@
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>247</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>249</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -3330,8 +3314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3366,10 +3350,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3389,13 +3373,13 @@
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G2" s="48">
         <v>44047</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3412,6 +3396,18 @@
       <c r="D3" s="16" t="s">
         <v>187</v>
       </c>
+      <c r="E3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3" s="48">
+        <v>44069</v>
+      </c>
+      <c r="H3" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="21">
@@ -3443,7 +3439,7 @@
         <v>189</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3467,7 +3463,7 @@
         <v>44047</v>
       </c>
       <c r="H6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3480,6 +3476,9 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="16"/>
+      <c r="E7" s="11" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
@@ -3511,13 +3510,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G9" s="48">
         <v>44069</v>
       </c>
       <c r="H9" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3529,19 +3528,19 @@
         <v>199</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G10" s="48">
         <v>44069</v>
       </c>
       <c r="H10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
@@ -3558,13 +3557,13 @@
         <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G11" s="48">
         <v>44047</v>
       </c>
       <c r="H11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3926,7 +3925,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3961,10 +3960,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -4397,10 +4396,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -4949,10 +4948,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -5376,7 +5375,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5498,10 +5497,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5524,7 +5523,7 @@
         <v>44047</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5548,7 +5547,7 @@
         <v>44047</v>
       </c>
       <c r="H3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -5581,7 +5580,7 @@
         <v>44047</v>
       </c>
       <c r="H5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5605,7 +5604,7 @@
         <v>44047</v>
       </c>
       <c r="H6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6017,10 +6016,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6062,10 +6061,10 @@
         <v>217</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6074,13 +6073,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
@@ -6089,13 +6088,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>226</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6496,10 +6495,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6507,13 +6506,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>228</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>229</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>7</v>
@@ -6522,7 +6521,7 @@
         <v>44047</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6531,13 +6530,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>232</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="144" x14ac:dyDescent="0.3">
@@ -6546,25 +6545,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>235</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>236</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G4" s="48">
         <v>44047</v>
       </c>
       <c r="H4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -6573,25 +6572,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>237</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>238</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G5" s="48">
         <v>44047</v>
       </c>
       <c r="H5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6979,10 +6978,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -7005,7 +7004,7 @@
         <v>44047</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -7029,7 +7028,7 @@
         <v>44047</v>
       </c>
       <c r="H3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7050,13 +7049,13 @@
         <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G4" s="48">
         <v>44047</v>
       </c>
       <c r="H4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -7405,8 +7404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:H16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7441,10 +7440,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -7464,13 +7463,13 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G2" s="48">
         <v>44047</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
@@ -7495,7 +7494,7 @@
         <v>44047</v>
       </c>
       <c r="H3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7516,13 +7515,13 @@
         <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G4" s="48">
         <v>44047</v>
       </c>
       <c r="H4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -7546,7 +7545,7 @@
         <v>44047</v>
       </c>
       <c r="H5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7570,7 +7569,7 @@
         <v>44047</v>
       </c>
       <c r="H6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -7594,7 +7593,7 @@
         <v>44047</v>
       </c>
       <c r="H7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
@@ -7618,7 +7617,7 @@
         <v>44047</v>
       </c>
       <c r="H8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
@@ -7636,7 +7635,7 @@
         <v>87</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
@@ -7660,7 +7659,7 @@
         <v>44047</v>
       </c>
       <c r="H10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -7678,7 +7677,7 @@
         <v>144</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -7698,7 +7697,7 @@
         <v>202</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -7741,7 +7740,7 @@
         <v>44047</v>
       </c>
       <c r="H14" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -7765,7 +7764,7 @@
         <v>44047</v>
       </c>
       <c r="H15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7789,7 +7788,7 @@
         <v>44047</v>
       </c>
       <c r="H16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7815,14 +7814,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="F18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -8137,8 +8136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8172,10 +8171,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="35" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -8183,25 +8182,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>240</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>241</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G2" s="48">
         <v>44047</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -8209,13 +8208,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>244</v>
-      </c>
       <c r="D3" s="34" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
@@ -8227,32 +8226,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="G4" s="48">
         <v>44047</v>
       </c>
       <c r="H4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <v>4</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>281</v>
+      </c>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5"/>
@@ -9619,8 +9626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:H20"/>
+    <sheetView topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9655,10 +9662,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="144" x14ac:dyDescent="0.3">
@@ -9693,7 +9700,7 @@
         <v>44047</v>
       </c>
       <c r="H3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -9717,7 +9724,7 @@
         <v>44047</v>
       </c>
       <c r="H4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -9741,7 +9748,7 @@
         <v>44047</v>
       </c>
       <c r="H5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
@@ -9765,10 +9772,10 @@
         <v>44047</v>
       </c>
       <c r="H6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -9785,14 +9792,12 @@
       <c r="E7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>269</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="48">
         <v>44047</v>
       </c>
       <c r="H7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -9816,7 +9821,7 @@
         <v>44047</v>
       </c>
       <c r="H8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
@@ -9837,13 +9842,13 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G9" s="48">
         <v>44047</v>
       </c>
       <c r="H9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="259.2" x14ac:dyDescent="0.3">
@@ -9864,13 +9869,13 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G10" s="48">
         <v>44047</v>
       </c>
       <c r="H10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
@@ -9894,7 +9899,7 @@
         <v>44047</v>
       </c>
       <c r="H11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9912,7 +9917,7 @@
         <v>156</v>
       </c>
       <c r="F12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -9933,7 +9938,7 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -9958,7 +9963,7 @@
         <v>44047</v>
       </c>
       <c r="H14" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -9982,7 +9987,7 @@
         <v>44047</v>
       </c>
       <c r="H15" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" ht="144" x14ac:dyDescent="0.3">
@@ -10003,13 +10008,13 @@
         <v>7</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G16" s="48">
         <v>44047</v>
       </c>
       <c r="H16" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="144" x14ac:dyDescent="0.3">
@@ -10030,13 +10035,13 @@
         <v>7</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G17" s="48">
         <v>44047</v>
       </c>
       <c r="H17" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -10060,7 +10065,7 @@
         <v>44047</v>
       </c>
       <c r="H18" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -10084,7 +10089,7 @@
         <v>44047</v>
       </c>
       <c r="H19" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -10108,7 +10113,7 @@
         <v>44047</v>
       </c>
       <c r="H20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">

--- a/Test/C780_Binary_Library_Test_Plan_20200826_cellini.xlsx
+++ b/Test/C780_Binary_Library_Test_Plan_20200826_cellini.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620" tabRatio="814" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620" tabRatio="814" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Revision_His." sheetId="3" r:id="rId1"/>
@@ -805,7 +805,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="286">
   <si>
     <t>Test ID</t>
   </si>
@@ -2156,7 +2156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2258,6 +2258,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -4360,7 +4365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -7404,8 +7409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7417,7 +7422,7 @@
     <col min="5" max="5" width="10.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="46" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -7676,11 +7681,18 @@
       <c r="D11" s="16" t="s">
         <v>144</v>
       </c>
+      <c r="E11" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="F11" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="49">
+        <v>44075</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
@@ -7696,11 +7708,18 @@
       <c r="D12" s="16" t="s">
         <v>202</v>
       </c>
+      <c r="E12" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="F12" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="51">
+        <v>44075</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="21">
@@ -7716,8 +7735,15 @@
       <c r="D13" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="E13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="49">
+        <v>44076</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="21">
@@ -9626,7 +9652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
